--- a/biology/Botanique/Cladophoraceae/Cladophoraceae.xlsx
+++ b/biology/Botanique/Cladophoraceae/Cladophoraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cladophoraceae, ou Cladophoracées, sont une famille d’algues vertes de l’ordre des Cladophorales[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cladophoraceae, ou Cladophoracées, sont une famille d’algues vertes de l’ordre des Cladophorales. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Cladophora, composé du préfixe "clad-", « branche ; rameau », et du suffixe "-phora", « qui porte », signifiant littéralement « porteur de rameaux ». 
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (3 août 2017)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (3 août 2017) :
 Acrocladus Nägeli
 Bryobesia Weber-van Bosse
 Chaetomorpha Kützing
@@ -558,15 +574,15 @@
 Rhizoclonium Kützing
 Spongiochrysis Rindi, J.López-Bautista, A.R.Sherwood &amp; Guiry
 Willeella Børgesen
-Selon BioLib                    (3 août 2017)[2] :
+Selon BioLib                    (3 août 2017) :
 Chaetomorpha Kuetzing
 Cladophora Kützing, 1843
-Selon Catalogue of Life                                   (3 août 2017)[3] :
+Selon Catalogue of Life                                   (3 août 2017) :
 Cladophora
 Conferva
 Hormiscia
 Pithophora
-Selon GBIF       (28 décembre 2022)[4] :
+Selon GBIF       (28 décembre 2022) :
 Acracladus
 Aegagropila Kützing, 1843
 Aplonema Hassall, 1845
@@ -597,12 +613,12 @@
 Spongosiphonia J.E.Areschoug, 1866
 Vagabundia J.E.Gray, 1864
 Wittrockiella Wille, 1909
-Selon ITIS      (3 août 2017)[5] :
+Selon ITIS      (3 août 2017) :
 Chaetomorpha Kuetzing, 1845
 Cladophora Kützing, 1843
 Lola A. Hamel &amp; G. Hamel, 1924
 Rhizoclonium Kuetzing, 1843
-Selon World Register of Marine Species                               (3 août 2017)[6] :
+Selon World Register of Marine Species                               (3 août 2017) :
 Aegagropila Kützing, 1843
 Arnoldiella V.V.Miller, 1928
 Basicladia W.E.Hoffmann &amp; Tilden, 1930
